--- a/data/trans_orig/P1416-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1416-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>53600</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40591</v>
+        <v>41627</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69563</v>
+        <v>71854</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05195236890247919</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03934315926530482</v>
+        <v>0.04034736141782664</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06742448247580421</v>
+        <v>0.06964503822543912</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>97</v>
@@ -765,19 +765,19 @@
         <v>98776</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>81088</v>
+        <v>80847</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>118722</v>
+        <v>117340</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0751086243339054</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06165823019338931</v>
+        <v>0.06147542166915277</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09027491828500606</v>
+        <v>0.08922436392664472</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>151</v>
@@ -786,19 +786,19 @@
         <v>152377</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>130906</v>
+        <v>130701</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>181007</v>
+        <v>177332</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06492860195828488</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05577984325352423</v>
+        <v>0.0556924112280241</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07712792916091812</v>
+        <v>0.07556209329256895</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>978123</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>962160</v>
+        <v>959869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>991132</v>
+        <v>990096</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9480476310975208</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9325755175241958</v>
+        <v>0.9303549617745583</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9606568407346951</v>
+        <v>0.9596526385821732</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1194</v>
@@ -836,19 +836,19 @@
         <v>1216337</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1196391</v>
+        <v>1197773</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1234025</v>
+        <v>1234266</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9248913756660946</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.909725081714994</v>
+        <v>0.9107756360733553</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9383417698066107</v>
+        <v>0.9385245783308472</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2178</v>
@@ -857,19 +857,19 @@
         <v>2194458</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2165828</v>
+        <v>2169503</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2215929</v>
+        <v>2216134</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9350713980417151</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9228720708390818</v>
+        <v>0.924437906707431</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9442201567464757</v>
+        <v>0.9443075887719758</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>116567</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>95982</v>
+        <v>96591</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>140329</v>
+        <v>140819</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06883540116980658</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05667952264039813</v>
+        <v>0.05703907614180998</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08286727550047093</v>
+        <v>0.08315707802634319</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>168</v>
@@ -982,19 +982,19 @@
         <v>169542</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>146832</v>
+        <v>145425</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>195450</v>
+        <v>193755</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1067862950040914</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0924824092620295</v>
+        <v>0.09159611364366924</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1231045709242142</v>
+        <v>0.122037095866527</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>279</v>
@@ -1003,19 +1003,19 @@
         <v>286108</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>254172</v>
+        <v>251649</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>319771</v>
+        <v>319698</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08719932659664244</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07746581965537885</v>
+        <v>0.07669676048081052</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0974587989413241</v>
+        <v>0.09743665105835739</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1576846</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1553084</v>
+        <v>1552594</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1597431</v>
+        <v>1596822</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9311645988301934</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.917132724499529</v>
+        <v>0.9168429219736568</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9433204773596019</v>
+        <v>0.9429609238581901</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1386</v>
@@ -1053,19 +1053,19 @@
         <v>1418131</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1392223</v>
+        <v>1393918</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1440841</v>
+        <v>1442248</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8932137049959086</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8768954290757858</v>
+        <v>0.877962904133473</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9075175907379704</v>
+        <v>0.9084038863563307</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2924</v>
@@ -1074,19 +1074,19 @@
         <v>2994978</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2961315</v>
+        <v>2961388</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3026914</v>
+        <v>3029437</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9128006734033576</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9025412010586759</v>
+        <v>0.9025633489416425</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9225341803446211</v>
+        <v>0.9233032395191891</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>49112</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35523</v>
+        <v>36737</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64531</v>
+        <v>64004</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08906637179820885</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06442309668069071</v>
+        <v>0.06662402637741474</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1170285934330584</v>
+        <v>0.1160735469325766</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -1199,19 +1199,19 @@
         <v>55712</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40905</v>
+        <v>42354</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72234</v>
+        <v>72408</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1169399618381979</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08586029391169629</v>
+        <v>0.08890102200517283</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1516217384416482</v>
+        <v>0.1519866194036647</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>97</v>
@@ -1220,19 +1220,19 @@
         <v>104824</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>85398</v>
+        <v>85129</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>124640</v>
+        <v>124962</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1019862489907879</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08308651104014381</v>
+        <v>0.08282497493467172</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1212665220105231</v>
+        <v>0.1215793958849771</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>502296</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>486877</v>
+        <v>487404</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>515885</v>
+        <v>514671</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9109336282017911</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8829714065669405</v>
+        <v>0.8839264530674232</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9355769033193091</v>
+        <v>0.9333759736225851</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>402</v>
@@ -1270,19 +1270,19 @@
         <v>420700</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>404178</v>
+        <v>404004</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>435507</v>
+        <v>434058</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8830600381618021</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8483782615583524</v>
+        <v>0.8480133805963352</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.914139706088304</v>
+        <v>0.911098977994827</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>882</v>
@@ -1291,19 +1291,19 @@
         <v>922996</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>903180</v>
+        <v>902858</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>942422</v>
+        <v>942691</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8980137510092121</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8787334779894768</v>
+        <v>0.8784206041150227</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9169134889598562</v>
+        <v>0.9171750250653282</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>219279</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>190111</v>
+        <v>193608</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>248076</v>
+        <v>249457</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06692390733899529</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05802178607102218</v>
+        <v>0.05908915541102524</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07571279204719857</v>
+        <v>0.07613413014860665</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>315</v>
@@ -1416,19 +1416,19 @@
         <v>324030</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>291517</v>
+        <v>289393</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>357710</v>
+        <v>359060</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09588951205477066</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08626816254183399</v>
+        <v>0.08563969490159655</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.105856501192828</v>
+        <v>0.1062559475636729</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>527</v>
@@ -1437,19 +1437,19 @@
         <v>543309</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>498791</v>
+        <v>501268</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>586741</v>
+        <v>591226</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08163008339646292</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07494144170394948</v>
+        <v>0.07531357902371294</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08815567872117933</v>
+        <v>0.08882946057112293</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3057264</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3028467</v>
+        <v>3027086</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3086432</v>
+        <v>3082935</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9330760926610047</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9242872079528015</v>
+        <v>0.9238658698513934</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.941978213928978</v>
+        <v>0.940910844588975</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2982</v>
@@ -1487,19 +1487,19 @@
         <v>3055167</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3021487</v>
+        <v>3020137</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3087680</v>
+        <v>3089804</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9041104879452293</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.894143498807172</v>
+        <v>0.8937440524363272</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9137318374581659</v>
+        <v>0.9143603050984039</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5984</v>
@@ -1508,19 +1508,19 @@
         <v>6112432</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6069000</v>
+        <v>6064515</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6156950</v>
+        <v>6154473</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9183699166035371</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9118443212788206</v>
+        <v>0.9111705394288772</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9250585582960505</v>
+        <v>0.9246864209762872</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>35483</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24220</v>
+        <v>24411</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49730</v>
+        <v>50720</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03640663279903108</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02484971215996787</v>
+        <v>0.02504576124792638</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05102420420510762</v>
+        <v>0.05204004633926436</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -1872,19 +1872,19 @@
         <v>67115</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51616</v>
+        <v>53000</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83944</v>
+        <v>85291</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05016851725415783</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03858294592324559</v>
+        <v>0.03961725527343766</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06274761057950591</v>
+        <v>0.06375488360946108</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>94</v>
@@ -1893,19 +1893,19 @@
         <v>102599</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>83765</v>
+        <v>84935</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>124123</v>
+        <v>124963</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04436818208188086</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03622351367640027</v>
+        <v>0.03672967069759242</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05367618211763109</v>
+        <v>0.0540394702689423</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>939160</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>924913</v>
+        <v>923923</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>950423</v>
+        <v>950232</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9635933672009689</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9489757957948923</v>
+        <v>0.9479599536607356</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9751502878400321</v>
+        <v>0.9749542387520737</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1184</v>
@@ -1943,19 +1943,19 @@
         <v>1270682</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1253853</v>
+        <v>1252506</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1286181</v>
+        <v>1284797</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9498314827458422</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.937252389420494</v>
+        <v>0.9362451163905388</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9614170540767542</v>
+        <v>0.9603827447265623</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2061</v>
@@ -1964,19 +1964,19 @@
         <v>2209841</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2188317</v>
+        <v>2187477</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2228675</v>
+        <v>2227505</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9556318179181191</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9463238178823694</v>
+        <v>0.9459605297310578</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9637764863235999</v>
+        <v>0.9632703293024076</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>108319</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>89951</v>
+        <v>90533</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>130817</v>
+        <v>132514</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05518199708502412</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04582463575769573</v>
+        <v>0.04612112323735371</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06664345579014387</v>
+        <v>0.06750826006902022</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>139</v>
@@ -2089,19 +2089,19 @@
         <v>148106</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>125361</v>
+        <v>124474</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>170919</v>
+        <v>173029</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08431724720060266</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07136856591856099</v>
+        <v>0.0708638749030393</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09730520876864004</v>
+        <v>0.09850628814763694</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>243</v>
@@ -2110,19 +2110,19 @@
         <v>256424</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>225332</v>
+        <v>223341</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>287069</v>
+        <v>287464</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06894120534597543</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06058185999067379</v>
+        <v>0.06004648416202422</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07718030318890949</v>
+        <v>0.07728644981064349</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1854616</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1832118</v>
+        <v>1830421</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1872984</v>
+        <v>1872402</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9448180029149759</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9333565442098561</v>
+        <v>0.9324917399309796</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9541753642423043</v>
+        <v>0.9538788767626462</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1495</v>
@@ -2160,19 +2160,19 @@
         <v>1608421</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1585608</v>
+        <v>1583498</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1631166</v>
+        <v>1632053</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9156827527993974</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9026947912313597</v>
+        <v>0.9014937118523629</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9286314340814389</v>
+        <v>0.9291361250969604</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3246</v>
@@ -2181,19 +2181,19 @@
         <v>3463039</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3432394</v>
+        <v>3431999</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3494131</v>
+        <v>3496122</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9310587946540245</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9228196968110907</v>
+        <v>0.9227135501893565</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9394181400093262</v>
+        <v>0.9399535158379756</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>31969</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21654</v>
+        <v>22563</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45437</v>
+        <v>47260</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06643794621362424</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04500212555371302</v>
+        <v>0.04689161049272904</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09442750548580561</v>
+        <v>0.09821747923447613</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -2306,19 +2306,19 @@
         <v>44970</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33493</v>
+        <v>33584</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60405</v>
+        <v>59822</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09805302823733444</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07302783166655673</v>
+        <v>0.07322677309763369</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1317075874496889</v>
+        <v>0.1304356968888436</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -2327,19 +2327,19 @@
         <v>76939</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60142</v>
+        <v>60201</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>97188</v>
+        <v>94863</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08186619287324289</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06399390854761988</v>
+        <v>0.06405635790772565</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1034121453426673</v>
+        <v>0.1009381567421855</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>449212</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>435744</v>
+        <v>433921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>459527</v>
+        <v>458618</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9335620537863758</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9055724945141944</v>
+        <v>0.9017825207655239</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.954997874446287</v>
+        <v>0.9531083895072709</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>371</v>
@@ -2377,19 +2377,19 @@
         <v>413661</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>398226</v>
+        <v>398809</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>425138</v>
+        <v>425047</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9019469717626656</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8682924125503111</v>
+        <v>0.8695643031111565</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9269721683334433</v>
+        <v>0.9267732269023664</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>780</v>
@@ -2398,19 +2398,19 @@
         <v>862874</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>842625</v>
+        <v>844950</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>879671</v>
+        <v>879612</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9181338071267571</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8965878546573327</v>
+        <v>0.8990618432578146</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9360060914523801</v>
+        <v>0.9359436420922743</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>175771</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>148935</v>
+        <v>151154</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>204266</v>
+        <v>205449</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05141363532144452</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04356405057362428</v>
+        <v>0.0442132300423043</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05974859628390832</v>
+        <v>0.06009454157961678</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>243</v>
@@ -2523,19 +2523,19 @@
         <v>260191</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>228981</v>
+        <v>229911</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>292006</v>
+        <v>294231</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0732322776466824</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06444793313324639</v>
+        <v>0.06470976083233014</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.082186710556794</v>
+        <v>0.08281305121988182</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>407</v>
@@ -2544,19 +2544,19 @@
         <v>435962</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>393884</v>
+        <v>398533</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>477350</v>
+        <v>481470</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06253294457955803</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05649749113578191</v>
+        <v>0.05716420250226669</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06846951406159534</v>
+        <v>0.06906044623373155</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3242989</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3214494</v>
+        <v>3213311</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3269825</v>
+        <v>3267606</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9485863646785555</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9402514037160917</v>
+        <v>0.9399054584203833</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9564359494263758</v>
+        <v>0.9557867699576958</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3050</v>
@@ -2594,19 +2594,19 @@
         <v>3292764</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3260949</v>
+        <v>3258724</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3323974</v>
+        <v>3323044</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9267677223533176</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9178132894432059</v>
+        <v>0.9171869487801182</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9355520668667535</v>
+        <v>0.9352902391676698</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6087</v>
@@ -2615,19 +2615,19 @@
         <v>6535753</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6494365</v>
+        <v>6490245</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6577831</v>
+        <v>6573182</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.937467055420442</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9315304859384046</v>
+        <v>0.9309395537662686</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9435025088642179</v>
+        <v>0.9428357974977335</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>17373</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10941</v>
+        <v>10499</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27374</v>
+        <v>26277</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02302996694272818</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01450434945140709</v>
+        <v>0.01391829918757397</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03628832415208719</v>
+        <v>0.03483472821231171</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -2979,19 +2979,19 @@
         <v>49759</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36493</v>
+        <v>37356</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64638</v>
+        <v>67685</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05002628634574179</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03668882783403211</v>
+        <v>0.03755640526874084</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06498453036533282</v>
+        <v>0.06804819631539888</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>63</v>
@@ -3000,19 +3000,19 @@
         <v>67132</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52201</v>
+        <v>53689</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84826</v>
+        <v>85267</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03838277255203208</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02984629220286598</v>
+        <v>0.03069681051112044</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04849957732571142</v>
+        <v>0.04875192563751048</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>736974</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>726973</v>
+        <v>728070</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>743406</v>
+        <v>743848</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9769700330572718</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9637116758479127</v>
+        <v>0.9651652717876883</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9854956505485927</v>
+        <v>0.986081700812426</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>847</v>
@@ -3050,19 +3050,19 @@
         <v>944901</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>930022</v>
+        <v>926975</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>958167</v>
+        <v>957304</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9499737136542582</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9350154696346678</v>
+        <v>0.9319518036846012</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9633111721659682</v>
+        <v>0.9624435947312591</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1591</v>
@@ -3071,19 +3071,19 @@
         <v>1681875</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1664181</v>
+        <v>1663740</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1696806</v>
+        <v>1695318</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.961617227447968</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9515004226742886</v>
+        <v>0.9512480743624894</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9701537077971341</v>
+        <v>0.9693031894888795</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>103157</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>84342</v>
+        <v>84369</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>125114</v>
+        <v>124796</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04968093587302609</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04061985089950329</v>
+        <v>0.04063266778585028</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06025587380410977</v>
+        <v>0.0601024503693327</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>166</v>
@@ -3196,19 +3196,19 @@
         <v>172042</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>148115</v>
+        <v>147484</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>199180</v>
+        <v>198962</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08652743481195316</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07449323338077524</v>
+        <v>0.07417617921393431</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1001759769818057</v>
+        <v>0.100066411723819</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>265</v>
@@ -3217,19 +3217,19 @@
         <v>275199</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>245886</v>
+        <v>244679</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>309541</v>
+        <v>306909</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06770493913084018</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06049320705394888</v>
+        <v>0.06019630147908805</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0761536627072381</v>
+        <v>0.07550622134134831</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1973228</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1951271</v>
+        <v>1951589</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1992043</v>
+        <v>1992016</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9503190641269739</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9397441261958903</v>
+        <v>0.9398975496306673</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9593801491004967</v>
+        <v>0.9593673322141497</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1742</v>
@@ -3267,19 +3267,19 @@
         <v>1816258</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1789120</v>
+        <v>1789338</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1840185</v>
+        <v>1840816</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9134725651880469</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.899824023018194</v>
+        <v>0.8999335882761806</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9255067666192248</v>
+        <v>0.9258238207860655</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3595</v>
@@ -3288,19 +3288,19 @@
         <v>3789486</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3755144</v>
+        <v>3757776</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3818799</v>
+        <v>3820006</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9322950608691598</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9238463372927619</v>
+        <v>0.9244937786586517</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9395067929460511</v>
+        <v>0.9398036985209119</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>46940</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34112</v>
+        <v>34435</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61007</v>
+        <v>63006</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08583077610735544</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06237455388960937</v>
+        <v>0.06296640968251763</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1115542572491491</v>
+        <v>0.115207746853173</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -3413,19 +3413,19 @@
         <v>59769</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44337</v>
+        <v>45699</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75312</v>
+        <v>77458</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1088415058939318</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08073917799863707</v>
+        <v>0.08321947428943101</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1371449216488627</v>
+        <v>0.1410540616324295</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>98</v>
@@ -3434,19 +3434,19 @@
         <v>106709</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87337</v>
+        <v>87384</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>128334</v>
+        <v>127510</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09735980351105858</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07968466840228623</v>
+        <v>0.07972830414986413</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.117090233394013</v>
+        <v>0.1163385791178789</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>499946</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>485879</v>
+        <v>483880</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>512774</v>
+        <v>512451</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9141692238926445</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.888445742750851</v>
+        <v>0.8847922531468271</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9376254461103907</v>
+        <v>0.9370335903174823</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>471</v>
@@ -3484,19 +3484,19 @@
         <v>489371</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>473828</v>
+        <v>471682</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>504803</v>
+        <v>503441</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8911584941060682</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8628550783511372</v>
+        <v>0.8589459383675704</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9192608220013625</v>
+        <v>0.9167805257105682</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>929</v>
@@ -3505,19 +3505,19 @@
         <v>989318</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>967693</v>
+        <v>968517</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1008690</v>
+        <v>1008643</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9026401964889414</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.882909766605987</v>
+        <v>0.8836614208821211</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9203153315977137</v>
+        <v>0.9202716958501358</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>167469</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>143833</v>
+        <v>143684</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>192735</v>
+        <v>193987</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04958198369114826</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04258408488508113</v>
+        <v>0.04254000791156908</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05706240695857255</v>
+        <v>0.05743298725323592</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>266</v>
@@ -3630,19 +3630,19 @@
         <v>281571</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>249813</v>
+        <v>250047</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>316291</v>
+        <v>316989</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07971769618895323</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07072639146823767</v>
+        <v>0.0707927094124193</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08954751869529755</v>
+        <v>0.0897452987422689</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>426</v>
@@ -3651,19 +3651,19 @@
         <v>449040</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>412879</v>
+        <v>409217</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>494475</v>
+        <v>491594</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06498671651165201</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05975339434764282</v>
+        <v>0.05922336046399823</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07156220380267901</v>
+        <v>0.07114525366874144</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3210149</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3184883</v>
+        <v>3183631</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3233785</v>
+        <v>3233934</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9504180163088517</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9429375930414275</v>
+        <v>0.9425670127467641</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9574159151149189</v>
+        <v>0.9574599920884309</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3060</v>
@@ -3701,19 +3701,19 @@
         <v>3250529</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3215809</v>
+        <v>3215111</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3282287</v>
+        <v>3282053</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9202823038110468</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9104524813047025</v>
+        <v>0.9102547012577311</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9292736085317623</v>
+        <v>0.9292072905875807</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6115</v>
@@ -3722,19 +3722,19 @@
         <v>6460678</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6415243</v>
+        <v>6418124</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6496839</v>
+        <v>6500501</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.935013283488348</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9284377961973213</v>
+        <v>0.9288547463312585</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9402466056523574</v>
+        <v>0.9407766395360018</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>32250</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22456</v>
+        <v>22496</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44728</v>
+        <v>44219</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05583927710802842</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03888168413858306</v>
+        <v>0.03895077603921559</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07744503016672064</v>
+        <v>0.07656345797642408</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>141</v>
@@ -4086,19 +4086,19 @@
         <v>84453</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69932</v>
+        <v>71276</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98011</v>
+        <v>97757</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1029976613884347</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08528876824730969</v>
+        <v>0.08692729866011309</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1195325579071105</v>
+        <v>0.1192236061722691</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>177</v>
@@ -4107,19 +4107,19 @@
         <v>116702</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101872</v>
+        <v>100103</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>135296</v>
+        <v>134917</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08350848401178999</v>
+        <v>0.08350848401179001</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07289613659706791</v>
+        <v>0.07163031582738492</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09681378256221053</v>
+        <v>0.09654226353246503</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>545292</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>532814</v>
+        <v>533323</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>555086</v>
+        <v>555046</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9441607228919715</v>
+        <v>0.9441607228919717</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9225549698332793</v>
+        <v>0.9234365420235759</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9611183158614169</v>
+        <v>0.9610492239607842</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1283</v>
@@ -4157,19 +4157,19 @@
         <v>735496</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>721938</v>
+        <v>722192</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>750017</v>
+        <v>748673</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8970023386115653</v>
+        <v>0.8970023386115652</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8804674420928894</v>
+        <v>0.880776393827731</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9147112317526902</v>
+        <v>0.9130727013398874</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1937</v>
@@ -4178,19 +4178,19 @@
         <v>1280789</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1262195</v>
+        <v>1262574</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1295619</v>
+        <v>1297388</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9164915159882101</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9031862174377894</v>
+        <v>0.9034577364675349</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9271038634029327</v>
+        <v>0.9283696841726152</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>247972</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>214838</v>
+        <v>214287</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>283736</v>
+        <v>282943</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1114119507131621</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0965250039604393</v>
+        <v>0.09627755570469743</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.127480398137868</v>
+        <v>0.1271241170343084</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>336</v>
@@ -4303,19 +4303,19 @@
         <v>252686</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>225748</v>
+        <v>227435</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>281693</v>
+        <v>281917</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1171122772323351</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1046274248813303</v>
+        <v>0.1054093054340045</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.130556562891022</v>
+        <v>0.130660291951282</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>543</v>
@@ -4324,19 +4324,19 @@
         <v>500658</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>458951</v>
+        <v>463144</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>547396</v>
+        <v>552356</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1142178403151429</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1047030255777955</v>
+        <v>0.1056595048109921</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1248805599777868</v>
+        <v>0.1260119587308717</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1977753</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1941989</v>
+        <v>1942782</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2010887</v>
+        <v>2011438</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.888588049286838</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8725196018621322</v>
+        <v>0.8728758829656917</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9034749960395607</v>
+        <v>0.9037224442953029</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2570</v>
@@ -4374,19 +4374,19 @@
         <v>1904949</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1875942</v>
+        <v>1875718</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1931887</v>
+        <v>1930200</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8828877227676649</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.869443437108978</v>
+        <v>0.869339708048718</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8953725751186699</v>
+        <v>0.8945906945659955</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4350</v>
@@ -4395,19 +4395,19 @@
         <v>3882702</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3835964</v>
+        <v>3831004</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3924409</v>
+        <v>3920216</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8857821596848572</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.875119440022213</v>
+        <v>0.8739880412691283</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8952969744222045</v>
+        <v>0.8943404951890078</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>59711</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45177</v>
+        <v>45261</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>78163</v>
+        <v>77319</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.08391312643938566</v>
+        <v>0.08391312643938564</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06348804377146924</v>
+        <v>0.06360510190271441</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1098437507787729</v>
+        <v>0.1086571156085847</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>147</v>
@@ -4520,19 +4520,19 @@
         <v>107320</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>90124</v>
+        <v>90899</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>125550</v>
+        <v>127030</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1463343523095034</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1228875109187792</v>
+        <v>0.1239438950620015</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1711913690343104</v>
+        <v>0.1732101606191214</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>203</v>
@@ -4541,19 +4541,19 @@
         <v>167031</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>143749</v>
+        <v>144870</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>190122</v>
+        <v>191054</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.115594625087372</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09948166596714073</v>
+        <v>0.1002581255675512</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.131574660554458</v>
+        <v>0.1322198423364441</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>651876</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>633424</v>
+        <v>634268</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>666410</v>
+        <v>666326</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9160868735606144</v>
+        <v>0.9160868735606142</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8901562492212273</v>
+        <v>0.8913428843914152</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9365119562285307</v>
+        <v>0.9363948980972853</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>855</v>
@@ -4591,19 +4591,19 @@
         <v>626068</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>607838</v>
+        <v>606358</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>643264</v>
+        <v>642489</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8536656476904966</v>
+        <v>0.8536656476904964</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8288086309656896</v>
+        <v>0.8267898393808785</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8771124890812206</v>
+        <v>0.8760561049379985</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1480</v>
@@ -4612,19 +4612,19 @@
         <v>1277944</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1254853</v>
+        <v>1253921</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1301226</v>
+        <v>1300105</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8844053749126282</v>
+        <v>0.8844053749126279</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.868425339445542</v>
+        <v>0.867780157663556</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9005183340328593</v>
+        <v>0.8997418744324488</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>339933</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>300927</v>
+        <v>302799</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>383152</v>
+        <v>381853</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09671337263797057</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08561571509419769</v>
+        <v>0.08614832286707082</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1090094865202706</v>
+        <v>0.1086397751120129</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>624</v>
@@ -4737,19 +4737,19 @@
         <v>444458</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>411133</v>
+        <v>412287</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>481632</v>
+        <v>483252</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1197686848775147</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1107886076348852</v>
+        <v>0.1110993650137813</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1297858425037182</v>
+        <v>0.1302226176574795</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>923</v>
@@ -4758,19 +4758,19 @@
         <v>784392</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>736919</v>
+        <v>733395</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>840272</v>
+        <v>838721</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1085539034976027</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1019840808485143</v>
+        <v>0.1014963143668691</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1162873053064397</v>
+        <v>0.1160727174148681</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3174921</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3131702</v>
+        <v>3133001</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3213927</v>
+        <v>3212055</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9032866273620295</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8909905134797296</v>
+        <v>0.8913602248879871</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9143842849058023</v>
+        <v>0.9138516771329293</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4708</v>
@@ -4808,19 +4808,19 @@
         <v>3266514</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3229340</v>
+        <v>3227720</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3299839</v>
+        <v>3298685</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8802313151224853</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8702141574962821</v>
+        <v>0.8697773823425202</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8892113923651146</v>
+        <v>0.8889006349862186</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7767</v>
@@ -4829,19 +4829,19 @@
         <v>6441434</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6385554</v>
+        <v>6387105</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6488907</v>
+        <v>6492431</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8914460965023975</v>
+        <v>0.8914460965023973</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8837126946935601</v>
+        <v>0.8839272825851318</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8980159191514854</v>
+        <v>0.8985036856331309</v>
       </c>
     </row>
     <row r="15">
